--- a/DOC/DiarioES2.xlsx
+++ b/DOC/DiarioES2.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovieira/Documents/GitHub/Trials4Health/DOC/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -51,7 +62,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,16 +98,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -109,12 +120,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -123,6 +128,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,166 +418,166 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.5</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
         <v>0.5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <v>1.5</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>0.5</v>
       </c>
-      <c r="G5" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DOC/DiarioES2.xlsx
+++ b/DOC/DiarioES2.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcovieira/Documents/GitHub/Trials4Health/DOC/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Marco Vieira</t>
   </si>
@@ -57,12 +52,18 @@
   </si>
   <si>
     <t>Entrega 4</t>
+  </si>
+  <si>
+    <t>Entrega 5</t>
+  </si>
+  <si>
+    <t>Entrega 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,11 +112,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -132,8 +155,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,49 +447,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -481,8 +520,20 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,8 +561,22 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -539,8 +604,22 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>5</v>
+      </c>
+      <c r="N4" s="10"/>
+      <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -568,6 +647,20 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/DOC/DiarioES2.xlsx
+++ b/DOC/DiarioES2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="1100" yWindow="2780" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Marco Vieira</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Entrega 4</t>
+  </si>
+  <si>
+    <t>Entrega 5</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,13 +129,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -415,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -429,34 +439,37 @@
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="A2" s="6"/>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
@@ -481,6 +494,14 @@
       <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -510,6 +531,14 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -539,6 +568,14 @@
       <c r="I4" s="3">
         <v>1</v>
       </c>
+      <c r="J4" s="9">
+        <v>0</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -568,6 +605,26 @@
       <c r="I5" s="3">
         <v>1</v>
       </c>
+      <c r="J5" s="9">
+        <v>0</v>
+      </c>
+      <c r="K5" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
